--- a/SIDs.xlsx
+++ b/SIDs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verti\Desktop\misilnl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89417F1-53F9-407B-9E26-EE47F1008E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87A23DB-C38F-4F72-ADEF-4729E4BFF3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="11520" windowHeight="10428" xr2:uid="{62FB6397-AF56-4DB5-8EE4-FFBE76619372}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{62FB6397-AF56-4DB5-8EE4-FFBE76619372}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Airport</t>
   </si>
@@ -51,113 +51,32 @@
     <t>Altitude</t>
   </si>
   <si>
-    <t>Speeed CAS</t>
-  </si>
-  <si>
-    <t>Leg Distance</t>
-  </si>
-  <si>
-    <t>KJFK</t>
-  </si>
-  <si>
-    <t>DEEZZ5</t>
-  </si>
-  <si>
-    <t>4L</t>
-  </si>
-  <si>
-    <t>DEEZZ</t>
-  </si>
-  <si>
-    <t>HEERO</t>
-  </si>
-  <si>
-    <t>KURNL</t>
-  </si>
-  <si>
-    <t>CANDR</t>
-  </si>
-  <si>
-    <t>TOWIN</t>
-  </si>
-  <si>
-    <t>4R</t>
-  </si>
-  <si>
-    <t>13L</t>
-  </si>
-  <si>
-    <t>13R</t>
-  </si>
-  <si>
-    <t>22L</t>
-  </si>
-  <si>
-    <t>22R</t>
-  </si>
-  <si>
-    <t>31L</t>
-  </si>
-  <si>
-    <t>SKORR</t>
-  </si>
-  <si>
-    <t>CESID</t>
-  </si>
-  <si>
-    <t>YNKEE</t>
-  </si>
-  <si>
-    <t>31R</t>
-  </si>
-  <si>
-    <t>SKORR4</t>
-  </si>
-  <si>
-    <t>METSS</t>
-  </si>
-  <si>
-    <t>RNGRR</t>
-  </si>
-  <si>
-    <t>RW4L</t>
-  </si>
-  <si>
-    <t>RW4R</t>
-  </si>
-  <si>
-    <t>RW13L</t>
-  </si>
-  <si>
-    <t>RW13R</t>
-  </si>
-  <si>
-    <t>RW22L</t>
-  </si>
-  <si>
-    <t>RW22R</t>
-  </si>
-  <si>
-    <t>RW31L</t>
-  </si>
-  <si>
-    <t>RW31R</t>
-  </si>
-  <si>
     <t>Latitude</t>
   </si>
   <si>
     <t>Longitude</t>
+  </si>
+  <si>
+    <t>Leg_distance</t>
+  </si>
+  <si>
+    <t>Speed_CAS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -501,8 +420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D518FB57-3412-4560-90B3-0FC867879C66}">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -524,30 +443,30 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>36</v>
-      </c>
       <c r="H1" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
+      <c r="D2">
+        <v>15</v>
       </c>
       <c r="E2">
         <v>190</v>
@@ -566,8 +485,17 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D3" t="s">
-        <v>10</v>
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>16</v>
       </c>
       <c r="E3">
         <v>5000</v>
@@ -586,8 +514,17 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D4" t="s">
-        <v>11</v>
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>17</v>
       </c>
       <c r="E4">
         <v>8000</v>
@@ -606,8 +543,17 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D5" t="s">
-        <v>12</v>
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>18</v>
       </c>
       <c r="E5">
         <v>11000</v>
@@ -626,8 +572,17 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D6" t="s">
-        <v>13</v>
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>19</v>
       </c>
       <c r="E6">
         <v>15000</v>
@@ -646,8 +601,17 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D7" t="s">
-        <v>14</v>
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
       </c>
       <c r="E7">
         <v>15000</v>
@@ -666,11 +630,17 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>21</v>
       </c>
       <c r="E8">
         <v>190</v>
@@ -689,8 +659,17 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D9" t="s">
-        <v>10</v>
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>16</v>
       </c>
       <c r="E9">
         <v>5000</v>
@@ -709,8 +688,17 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D10" t="s">
-        <v>11</v>
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>17</v>
       </c>
       <c r="E10">
         <v>8000</v>
@@ -729,8 +717,17 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D11" t="s">
-        <v>12</v>
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>18</v>
       </c>
       <c r="E11">
         <v>11000</v>
@@ -749,8 +746,17 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D12" t="s">
-        <v>13</v>
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>19</v>
       </c>
       <c r="E12">
         <v>15000</v>
@@ -769,8 +775,17 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D13" t="s">
-        <v>14</v>
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
       </c>
       <c r="E13">
         <v>15000</v>
@@ -789,11 +804,17 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" t="s">
-        <v>30</v>
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>22</v>
       </c>
       <c r="E14">
         <v>190</v>
@@ -812,8 +833,17 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D15" t="s">
-        <v>10</v>
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>16</v>
       </c>
       <c r="E15">
         <v>5000</v>
@@ -832,8 +862,17 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D16" t="s">
-        <v>11</v>
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>17</v>
       </c>
       <c r="E16">
         <v>8000</v>
@@ -851,9 +890,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D17" t="s">
-        <v>12</v>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>18</v>
       </c>
       <c r="E17">
         <v>11000</v>
@@ -871,9 +919,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D18" t="s">
-        <v>13</v>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>19</v>
       </c>
       <c r="E18">
         <v>15000</v>
@@ -891,9 +948,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D19" t="s">
-        <v>14</v>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>20</v>
       </c>
       <c r="E19">
         <v>15000</v>
@@ -911,12 +977,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" t="s">
-        <v>31</v>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>23</v>
       </c>
       <c r="E20">
         <v>190</v>
@@ -934,9 +1006,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D21" t="s">
-        <v>10</v>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <v>16</v>
       </c>
       <c r="E21">
         <v>5000</v>
@@ -954,9 +1035,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D22" t="s">
-        <v>11</v>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>9</v>
+      </c>
+      <c r="D22">
+        <v>17</v>
       </c>
       <c r="E22">
         <v>8000</v>
@@ -974,9 +1064,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D23" t="s">
-        <v>12</v>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>9</v>
+      </c>
+      <c r="D23">
+        <v>18</v>
       </c>
       <c r="E23">
         <v>11000</v>
@@ -994,9 +1093,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D24" t="s">
-        <v>13</v>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>9</v>
+      </c>
+      <c r="D24">
+        <v>19</v>
       </c>
       <c r="E24">
         <v>15000</v>
@@ -1014,9 +1122,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D25" t="s">
-        <v>14</v>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <v>20</v>
       </c>
       <c r="E25">
         <v>15000</v>
@@ -1034,12 +1151,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" t="s">
-        <v>32</v>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>24</v>
       </c>
       <c r="E26">
         <v>190</v>
@@ -1057,9 +1180,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D27" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
         <v>10</v>
+      </c>
+      <c r="D27">
+        <v>16</v>
       </c>
       <c r="E27">
         <v>5000</v>
@@ -1077,9 +1209,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D28" t="s">
-        <v>11</v>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <v>17</v>
       </c>
       <c r="E28">
         <v>8000</v>
@@ -1097,9 +1238,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D29" t="s">
-        <v>12</v>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>18</v>
       </c>
       <c r="E29">
         <v>11000</v>
@@ -1117,9 +1267,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D30" t="s">
-        <v>13</v>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>19</v>
       </c>
       <c r="E30">
         <v>15000</v>
@@ -1137,9 +1296,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D31" t="s">
-        <v>14</v>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <v>20</v>
       </c>
       <c r="E31">
         <v>15000</v>
@@ -1157,12 +1325,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C32" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" t="s">
-        <v>33</v>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>11</v>
+      </c>
+      <c r="D32">
+        <v>25</v>
       </c>
       <c r="E32">
         <v>190</v>
@@ -1180,9 +1354,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D33" t="s">
-        <v>10</v>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>11</v>
+      </c>
+      <c r="D33">
+        <v>16</v>
       </c>
       <c r="E33">
         <v>5000</v>
@@ -1200,9 +1383,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D34" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
         <v>11</v>
+      </c>
+      <c r="D34">
+        <v>17</v>
       </c>
       <c r="E34">
         <v>8000</v>
@@ -1220,9 +1412,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D35" t="s">
-        <v>12</v>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>11</v>
+      </c>
+      <c r="D35">
+        <v>18</v>
       </c>
       <c r="E35">
         <v>11000</v>
@@ -1240,9 +1441,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D36" t="s">
-        <v>13</v>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>11</v>
+      </c>
+      <c r="D36">
+        <v>19</v>
       </c>
       <c r="E36">
         <v>15000</v>
@@ -1260,9 +1470,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D37" t="s">
-        <v>14</v>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>11</v>
+      </c>
+      <c r="D37">
+        <v>20</v>
       </c>
       <c r="E37">
         <v>15000</v>
@@ -1280,12 +1499,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C38" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" t="s">
-        <v>34</v>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>12</v>
+      </c>
+      <c r="D38">
+        <v>26</v>
       </c>
       <c r="E38">
         <v>190</v>
@@ -1303,9 +1528,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D39" t="s">
-        <v>21</v>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>12</v>
+      </c>
+      <c r="D39">
+        <v>28</v>
       </c>
       <c r="E39">
         <v>1700</v>
@@ -1323,9 +1557,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D40" t="s">
-        <v>22</v>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>12</v>
+      </c>
+      <c r="D40">
+        <v>29</v>
       </c>
       <c r="E40">
         <v>2500</v>
@@ -1343,9 +1586,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D41" t="s">
-        <v>23</v>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>12</v>
+      </c>
+      <c r="D41">
+        <v>30</v>
       </c>
       <c r="E41">
         <v>5000</v>
@@ -1363,9 +1615,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D42" t="s">
-        <v>10</v>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>12</v>
+      </c>
+      <c r="D42">
+        <v>16</v>
       </c>
       <c r="E42">
         <v>5000</v>
@@ -1383,9 +1644,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D43" t="s">
-        <v>11</v>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>12</v>
+      </c>
+      <c r="D43">
+        <v>17</v>
       </c>
       <c r="E43">
         <v>8000</v>
@@ -1403,9 +1673,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D44" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44">
         <v>12</v>
+      </c>
+      <c r="D44">
+        <v>18</v>
       </c>
       <c r="E44">
         <v>11000</v>
@@ -1423,9 +1702,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D45" t="s">
-        <v>13</v>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>12</v>
+      </c>
+      <c r="D45">
+        <v>19</v>
       </c>
       <c r="E45">
         <v>15000</v>
@@ -1443,9 +1731,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D46" t="s">
-        <v>14</v>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>12</v>
+      </c>
+      <c r="D46">
+        <v>20</v>
       </c>
       <c r="E46">
         <v>15000</v>
@@ -1463,12 +1760,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C47" t="s">
-        <v>24</v>
-      </c>
-      <c r="D47" t="s">
-        <v>35</v>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>13</v>
+      </c>
+      <c r="D47">
+        <v>27</v>
       </c>
       <c r="E47">
         <v>190</v>
@@ -1486,9 +1789,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D48" t="s">
-        <v>21</v>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>13</v>
+      </c>
+      <c r="D48">
+        <v>28</v>
       </c>
       <c r="E48">
         <v>1700</v>
@@ -1506,9 +1818,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D49" t="s">
-        <v>22</v>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>13</v>
+      </c>
+      <c r="D49">
+        <v>29</v>
       </c>
       <c r="E49">
         <v>2500</v>
@@ -1526,9 +1847,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D50" t="s">
-        <v>23</v>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <v>13</v>
+      </c>
+      <c r="D50">
+        <v>30</v>
       </c>
       <c r="E50">
         <v>5000</v>
@@ -1546,9 +1876,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D51" t="s">
-        <v>10</v>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>13</v>
+      </c>
+      <c r="D51">
+        <v>16</v>
       </c>
       <c r="E51">
         <v>5000</v>
@@ -1566,9 +1905,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D52" t="s">
-        <v>11</v>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52">
+        <v>13</v>
+      </c>
+      <c r="D52">
+        <v>17</v>
       </c>
       <c r="E52">
         <v>8000</v>
@@ -1586,9 +1934,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D53" t="s">
-        <v>12</v>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>13</v>
+      </c>
+      <c r="D53">
+        <v>18</v>
       </c>
       <c r="E53">
         <v>11000</v>
@@ -1606,9 +1963,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D54" t="s">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54">
         <v>13</v>
+      </c>
+      <c r="D54">
+        <v>19</v>
       </c>
       <c r="E54">
         <v>15000</v>
@@ -1626,9 +1992,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D55" t="s">
-        <v>14</v>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55">
+        <v>13</v>
+      </c>
+      <c r="D55">
+        <v>20</v>
       </c>
       <c r="E55">
         <v>15000</v>
@@ -1646,15 +2021,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B56" t="s">
-        <v>25</v>
-      </c>
-      <c r="C56" t="s">
-        <v>20</v>
-      </c>
-      <c r="D56" t="s">
-        <v>34</v>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56">
+        <v>12</v>
+      </c>
+      <c r="D56">
+        <v>26</v>
       </c>
       <c r="E56">
         <v>190</v>
@@ -1672,9 +2050,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D57" t="s">
-        <v>21</v>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57">
+        <v>12</v>
+      </c>
+      <c r="D57">
+        <v>28</v>
       </c>
       <c r="E57">
         <v>1700</v>
@@ -1692,9 +2079,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D58" t="s">
-        <v>26</v>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>4</v>
+      </c>
+      <c r="C58">
+        <v>12</v>
+      </c>
+      <c r="D58">
+        <v>31</v>
       </c>
       <c r="E58">
         <v>2500</v>
@@ -1712,9 +2108,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D59" t="s">
-        <v>27</v>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>4</v>
+      </c>
+      <c r="C59">
+        <v>12</v>
+      </c>
+      <c r="D59">
+        <v>32</v>
       </c>
       <c r="E59">
         <v>5000</v>
@@ -1732,12 +2137,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C60" t="s">
-        <v>24</v>
-      </c>
-      <c r="D60" t="s">
-        <v>35</v>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60">
+        <v>4</v>
+      </c>
+      <c r="C60">
+        <v>13</v>
+      </c>
+      <c r="D60">
+        <v>27</v>
       </c>
       <c r="E60">
         <v>190</v>
@@ -1755,9 +2166,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D61" t="s">
-        <v>21</v>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61">
+        <v>4</v>
+      </c>
+      <c r="C61">
+        <v>13</v>
+      </c>
+      <c r="D61">
+        <v>28</v>
       </c>
       <c r="E61">
         <v>1700</v>
@@ -1775,9 +2195,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D62" t="s">
-        <v>26</v>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62">
+        <v>4</v>
+      </c>
+      <c r="C62">
+        <v>13</v>
+      </c>
+      <c r="D62">
+        <v>31</v>
       </c>
       <c r="E62">
         <v>2500</v>
@@ -1795,9 +2224,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D63" t="s">
-        <v>27</v>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63">
+        <v>4</v>
+      </c>
+      <c r="C63">
+        <v>13</v>
+      </c>
+      <c r="D63">
+        <v>32</v>
       </c>
       <c r="E63">
         <v>5000</v>
@@ -1816,6 +2254,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>